--- a/medicine/Handicap/Imprimante_tactile/Imprimante_tactile.xlsx
+++ b/medicine/Handicap/Imprimante_tactile/Imprimante_tactile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une imprimante tactile est un dispositif destiné aux aveugles ou fortement malvoyantes afin de  leur permettre de prendre connaissance des informations d'un écran informatique.
 </t>
@@ -511,7 +523,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’imprimante est souvent équipée d’options venant compléter son confort d’utilisation : du simple port USB à la connexion WiFi ou bluetooth. La cartouche d’encre, le toner pour le laser les papiers et les supports sont les consommables d'une imprimante.
 </t>
@@ -542,7 +556,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'imprimante multifonction :est un appareil polyvalent, pour utiliser plusieurs fonctions (imprimante, photocopieuse, scanner ou fax), en usage bureautique.
 L'imprimante photo compacte est spécialisée pour l'impression de photos au format 10 x 15 cm.
